--- a/FEn17_data/Macroinv Power Law Coeffs TBP.XLSX
+++ b/FEn17_data/Macroinv Power Law Coeffs TBP.XLSX
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Dropbox (Personal)\NSF_Invert_Photos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\FEn17Git\FEn17\FEn17_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD270461-654D-4D2B-AD09-D8B384F325EC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8070"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Organisms" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4430" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4432" uniqueCount="698">
   <si>
     <t>Class</t>
   </si>
@@ -1493,9 +1494,6 @@
     <t>Hyalellidae</t>
   </si>
   <si>
-    <t>ANNELIDA</t>
-  </si>
-  <si>
     <t>Tubificidae</t>
   </si>
   <si>
@@ -2118,18 +2116,21 @@
   </si>
   <si>
     <t>only thoracal segments measured; copepodites - adult</t>
+  </si>
+  <si>
+    <t>Annelida</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2142,16 +2143,316 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2159,11 +2460,159 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2190,9 +2639,51 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -2514,14 +3005,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1095"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I431" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I438" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B468" sqref="B468"/>
+      <selection pane="bottomRight" activeCell="B453" sqref="B453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2621,7 +3112,7 @@
         <v>51</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>452</v>
@@ -3037,16 +3528,16 @@
         <v>488</v>
       </c>
       <c r="F9" t="s">
+        <v>534</v>
+      </c>
+      <c r="G9" t="s">
         <v>535</v>
       </c>
-      <c r="G9" t="s">
-        <v>536</v>
-      </c>
       <c r="K9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M9">
         <v>2.3052063287225571E-2</v>
@@ -3071,13 +3562,13 @@
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="X9" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="X9" s="6" t="s">
+      <c r="Y9" t="s">
         <v>550</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
@@ -3094,7 +3585,7 @@
         <v>42</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H10" s="15"/>
       <c r="K10" s="1" t="s">
@@ -3122,13 +3613,13 @@
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="X10" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y10" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="X10" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
@@ -3136,20 +3627,20 @@
         <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>489</v>
+        <v>697</v>
       </c>
       <c r="D11" t="s">
         <v>434</v>
       </c>
       <c r="F11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G11"/>
       <c r="K11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M11">
         <v>1.0205486470764058E-4</v>
@@ -3174,13 +3665,13 @@
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
       <c r="W11" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="X11" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="X11" s="6" t="s">
+      <c r="Y11" t="s">
         <v>550</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
@@ -3188,22 +3679,22 @@
         <v>432</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M12" s="6">
         <v>8.7839440000000001E-5</v>
@@ -3228,13 +3719,13 @@
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
       <c r="W12" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="X12" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="X12" s="6" t="s">
+      <c r="Y12" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
@@ -3242,22 +3733,22 @@
         <v>432</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M13" s="6">
         <v>4.1909419999999997E-5</v>
@@ -3282,13 +3773,13 @@
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="X13" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="X13" s="6" t="s">
+      <c r="Y13" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
@@ -3296,19 +3787,19 @@
         <v>432</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>572</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>573</v>
       </c>
       <c r="H14" s="15"/>
       <c r="J14" s="15"/>
@@ -3337,7 +3828,7 @@
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
@@ -3345,19 +3836,19 @@
         <v>432</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>576</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>577</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>37</v>
@@ -3380,7 +3871,7 @@
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
       <c r="Y15" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
@@ -3388,22 +3879,22 @@
         <v>432</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M16" s="6">
         <v>6.3784519999999994E-5</v>
@@ -3428,13 +3919,13 @@
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
       <c r="W16" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="X16" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="X16" s="6" t="s">
+      <c r="Y16" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
@@ -3442,22 +3933,22 @@
         <v>432</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M17" s="6">
         <v>2.5674820000000002E-5</v>
@@ -3482,24 +3973,24 @@
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="X17" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="X17" s="6" t="s">
+      <c r="Y17" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>600</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>307</v>
@@ -3508,7 +3999,7 @@
         <v>37</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M18" s="6">
         <f>EXP(1.44)/1000</f>
@@ -3536,24 +4027,24 @@
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
       <c r="Y18" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="Z18" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA18" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA18" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>600</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>307</v>
@@ -3562,7 +4053,7 @@
         <v>37</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M19" s="6">
         <f>EXP(1.08)/1000</f>
@@ -3590,24 +4081,24 @@
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
       <c r="Y19" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="Z19" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA19" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA19" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>600</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>307</v>
@@ -3616,7 +4107,7 @@
         <v>37</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M20" s="6">
         <f>EXP(1.6026)/1000</f>
@@ -3631,7 +4122,7 @@
         <v>0.98</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="S20" s="6">
         <v>0.4</v>
@@ -3644,33 +4135,33 @@
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
       <c r="Y20" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="Z20" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA20" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA20" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>600</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M21" s="6">
         <f>EXP(1.4322)/1000</f>
@@ -3685,7 +4176,7 @@
         <v>0.95</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="S21" s="6">
         <v>0.5</v>
@@ -3698,33 +4189,33 @@
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="Z21" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA21" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA21" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>600</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M22" s="6">
         <f>EXP(1.0727)/1000</f>
@@ -3748,33 +4239,33 @@
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
       <c r="Y22" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Z22" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA22" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA22" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>600</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M23" s="6">
         <f>EXP(1.34)/1000</f>
@@ -3793,33 +4284,33 @@
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
       <c r="Y23" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Z23" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA23" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA23" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>600</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M24" s="6">
         <f>EXP(1.37)/1000</f>
@@ -3840,33 +4331,33 @@
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
       <c r="Y24" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Z24" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA24" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA24" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>600</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M25" s="6">
         <f>EXP(1.51)/1000</f>
@@ -3885,33 +4376,33 @@
       <c r="W25" s="6"/>
       <c r="X25" s="6"/>
       <c r="Y25" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="Z25" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA25" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA25" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>600</v>
-      </c>
       <c r="G26" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M26" s="6">
         <f>EXP(2.64)/1000</f>
@@ -3934,33 +4425,33 @@
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
       <c r="Y26" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Z26" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA26" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA26" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>600</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M27" s="6">
         <f>EXP(2.46)/1000</f>
@@ -3985,33 +4476,33 @@
       <c r="W27" s="6"/>
       <c r="X27" s="6"/>
       <c r="Y27" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Z27" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA27" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA27" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>600</v>
-      </c>
       <c r="G28" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M28" s="6">
         <f>EXP(1.4369)/1000</f>
@@ -4036,33 +4527,33 @@
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
       <c r="Y28" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Z28" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA28" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA28" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>600</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M29" s="6">
         <f>EXP(1.54)/1000</f>
@@ -4081,33 +4572,33 @@
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
       <c r="Y29" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="Z29" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA29" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA29" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>600</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M30" s="6">
         <f>EXP(1.9445)/1000</f>
@@ -4129,33 +4620,33 @@
       <c r="W30" s="6"/>
       <c r="X30" s="6"/>
       <c r="Y30" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="Z30" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA30" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA30" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>600</v>
-      </c>
       <c r="G31" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M31" s="6">
         <f>EXP(1.4663)/1000</f>
@@ -4180,33 +4671,33 @@
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
       <c r="Y31" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Z31" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA31" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA31" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>600</v>
-      </c>
       <c r="G32" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M32" s="6">
         <f>EXP(1.59)/1000</f>
@@ -4225,33 +4716,33 @@
       <c r="W32" s="6"/>
       <c r="X32" s="6"/>
       <c r="Y32" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="Z32" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA32" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA32" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>600</v>
-      </c>
       <c r="G33" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M33" s="6">
         <f>EXP(2.48)/1000</f>
@@ -4274,33 +4765,33 @@
       <c r="W33" s="6"/>
       <c r="X33" s="6"/>
       <c r="Y33" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="Z33" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA33" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA33" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>600</v>
-      </c>
       <c r="G34" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="M34" s="6">
         <f>EXP(-0.71)/1000</f>
@@ -4318,33 +4809,33 @@
       <c r="W34" s="6"/>
       <c r="X34" s="6"/>
       <c r="Y34" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="Z34" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA34" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA34" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>600</v>
-      </c>
       <c r="G35" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="M35" s="6">
         <f>EXP(3.1246)/1000</f>
@@ -4369,33 +4860,33 @@
       <c r="W35" s="6"/>
       <c r="X35" s="6"/>
       <c r="Y35" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="Z35" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA35" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA35" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>600</v>
-      </c>
       <c r="G36" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M36" s="6">
         <f>EXP(2.3)/1000</f>
@@ -4418,33 +4909,33 @@
       <c r="W36" s="6"/>
       <c r="X36" s="6"/>
       <c r="Y36" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="Z36" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA36" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA36" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>600</v>
-      </c>
       <c r="G37" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M37" s="6">
         <f>EXP(1.6729)/1000</f>
@@ -4469,33 +4960,33 @@
       <c r="W37" s="6"/>
       <c r="X37" s="6"/>
       <c r="Y37" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Z37" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA37" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA37" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>600</v>
-      </c>
       <c r="G38" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M38" s="6">
         <f>EXP(1.8268)/1000</f>
@@ -4520,33 +5011,33 @@
       <c r="W38" s="6"/>
       <c r="X38" s="6"/>
       <c r="Y38" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Z38" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA38" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA38" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>600</v>
-      </c>
       <c r="G39" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M39" s="6">
         <f>EXP(2.2)/1000</f>
@@ -4565,33 +5056,33 @@
       <c r="W39" s="6"/>
       <c r="X39" s="6"/>
       <c r="Y39" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="Z39" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA39" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA39" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>600</v>
-      </c>
       <c r="G40" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M40" s="6">
         <f>EXP(2.51)/1000</f>
@@ -4614,33 +5105,33 @@
       <c r="W40" s="6"/>
       <c r="X40" s="6"/>
       <c r="Y40" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="Z40" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA40" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA40" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>600</v>
-      </c>
       <c r="G41" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M41" s="6">
         <f>EXP(2.36)/1000</f>
@@ -4659,33 +5150,33 @@
       <c r="W41" s="6"/>
       <c r="X41" s="6"/>
       <c r="Y41" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="Z41" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA41" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA41" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>600</v>
-      </c>
       <c r="G42" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="M42" s="6">
         <f>EXP(2.12)/1000</f>
@@ -4704,33 +5195,33 @@
       <c r="W42" s="6"/>
       <c r="X42" s="6"/>
       <c r="Y42" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="Z42" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA42" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA42" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F43" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>611</v>
-      </c>
       <c r="K43" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M43" s="6">
         <f>EXP(2.5623)/1000</f>
@@ -4755,33 +5246,33 @@
       <c r="W43" s="6"/>
       <c r="X43" s="6"/>
       <c r="Y43" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Z43" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA43" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA43" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F44" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>611</v>
-      </c>
       <c r="K44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M44" s="6">
         <f>EXP(2.3466)/1000</f>
@@ -4804,33 +5295,33 @@
       <c r="W44" s="6"/>
       <c r="X44" s="6"/>
       <c r="Y44" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="Z44" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA44" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA44" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F45" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>611</v>
-      </c>
       <c r="K45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M45" s="6">
         <f>EXP(7.161)/1000</f>
@@ -4854,33 +5345,33 @@
       <c r="W45" s="6"/>
       <c r="X45" s="6"/>
       <c r="Y45" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="Z45" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA45" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA45" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M46" s="6">
         <f>EXP(2.83)/1000</f>
@@ -4902,33 +5393,33 @@
       <c r="W46" s="6"/>
       <c r="X46" s="6"/>
       <c r="Y46" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="Z46" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA46" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA46" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M47" s="6">
         <f>EXP(3.0727)/1000</f>
@@ -4950,33 +5441,33 @@
       <c r="W47" s="6"/>
       <c r="X47" s="6"/>
       <c r="Y47" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="Z47" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA47" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA47" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M48" s="6">
         <f>EXP(1.9148)/1000</f>
@@ -4995,33 +5486,33 @@
       <c r="W48" s="6"/>
       <c r="X48" s="6"/>
       <c r="Y48" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="Z48" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA48" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA48" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F49" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>614</v>
-      </c>
       <c r="K49" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="M49" s="6">
         <f>EXP(5.3976)/1000</f>
@@ -5046,33 +5537,33 @@
       <c r="W49" s="6"/>
       <c r="X49" s="6"/>
       <c r="Y49" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Z49" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA49" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA49" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F50" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>614</v>
-      </c>
       <c r="K50" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="M50" s="6">
         <f>EXP(6.4957)/1000</f>
@@ -5100,33 +5591,33 @@
       <c r="W50" s="6"/>
       <c r="X50" s="6"/>
       <c r="Y50" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="Z50" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA50" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA50" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F51" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>614</v>
-      </c>
       <c r="K51" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="M51" s="6">
         <f>EXP(6.2625)/1000</f>
@@ -5150,33 +5641,33 @@
       <c r="W51" s="6"/>
       <c r="X51" s="6"/>
       <c r="Y51" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="Z51" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA51" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA51" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F52" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>616</v>
-      </c>
       <c r="K52" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M52" s="6">
         <f>EXP(1.2894)/1000</f>
@@ -5202,33 +5693,33 @@
       <c r="W52" s="6"/>
       <c r="X52" s="6"/>
       <c r="Y52" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="Z52" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA52" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA52" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F53" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>616</v>
-      </c>
       <c r="K53" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M53" s="6">
         <f>EXP(1.3252)/1000</f>
@@ -5247,33 +5738,33 @@
       <c r="W53" s="6"/>
       <c r="X53" s="6"/>
       <c r="Y53" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="Z53" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA53" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA53" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F54" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>616</v>
-      </c>
       <c r="K54" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M54" s="6">
         <f>EXP(1.6242)/1000</f>
@@ -5298,33 +5789,33 @@
       <c r="W54" s="6"/>
       <c r="X54" s="6"/>
       <c r="Y54" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Z54" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA54" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA54" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F55" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>618</v>
-      </c>
       <c r="K55" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M55" s="6">
         <f>EXP(2.7116)/1000</f>
@@ -5348,33 +5839,33 @@
       <c r="W55" s="6"/>
       <c r="X55" s="6"/>
       <c r="Y55" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Z55" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA55" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA55" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F56" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>618</v>
-      </c>
       <c r="K56" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M56" s="6">
         <f>EXP(3.28)/1000</f>
@@ -5393,33 +5884,33 @@
       <c r="W56" s="6"/>
       <c r="X56" s="6"/>
       <c r="Y56" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Z56" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA56" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA56" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F57" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>618</v>
-      </c>
       <c r="K57" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="M57" s="6">
         <f>EXP(4.68)/1000</f>
@@ -5437,33 +5928,33 @@
       <c r="W57" s="6"/>
       <c r="X57" s="6"/>
       <c r="Y57" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Z57" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA57" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA57" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F58" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>618</v>
-      </c>
       <c r="K58" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M58" s="6">
         <f>EXP(4.9344)/1000</f>
@@ -5489,33 +5980,33 @@
       <c r="W58" s="6"/>
       <c r="X58" s="6"/>
       <c r="Y58" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="Z58" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA58" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA58" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M59" s="6">
         <f>EXP(2.7312)/1000</f>
@@ -5540,33 +6031,33 @@
       <c r="W59" s="6"/>
       <c r="X59" s="6"/>
       <c r="Y59" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Z59" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA59" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA59" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M60" s="6">
         <f>EXP(3.5274)/1000</f>
@@ -5591,33 +6082,33 @@
       <c r="W60" s="6"/>
       <c r="X60" s="6"/>
       <c r="Y60" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Z60" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA60" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA60" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M61" s="6">
         <f>EXP(3.2359)/1000</f>
@@ -5645,33 +6136,33 @@
       <c r="W61" s="6"/>
       <c r="X61" s="6"/>
       <c r="Y61" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="Z61" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA61" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA61" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M62" s="6">
         <f>EXP(2.7839)/1000</f>
@@ -5695,33 +6186,33 @@
       <c r="W62" s="6"/>
       <c r="X62" s="6"/>
       <c r="Y62" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="Z62" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA62" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA62" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F63" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>622</v>
-      </c>
       <c r="K63" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M63" s="6">
         <f>EXP(4.543)/1000</f>
@@ -5746,33 +6237,33 @@
       <c r="W63" s="6"/>
       <c r="X63" s="6"/>
       <c r="Y63" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="Z63" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA63" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA63" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F64" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>622</v>
-      </c>
       <c r="K64" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M64" s="6">
         <f>EXP(4.4935)/1000</f>
@@ -5790,33 +6281,33 @@
       <c r="W64" s="6"/>
       <c r="X64" s="6"/>
       <c r="Y64" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="Z64" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA64" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA64" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F65" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>622</v>
-      </c>
       <c r="K65" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M65" s="6">
         <f>EXP(4.8211)/1000</f>
@@ -5835,33 +6326,33 @@
       <c r="W65" s="6"/>
       <c r="X65" s="6"/>
       <c r="Y65" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="Z65" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA65" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA65" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F66" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>624</v>
-      </c>
       <c r="K66" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M66" s="6">
         <f>EXP(-0.822)/1000</f>
@@ -5889,33 +6380,33 @@
       <c r="W66" s="6"/>
       <c r="X66" s="6"/>
       <c r="Y66" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="Z66" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA66" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA66" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F67" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>626</v>
-      </c>
       <c r="K67" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M67" s="6">
         <f>EXP(2.7792)/1000</f>
@@ -5943,33 +6434,33 @@
       <c r="W67" s="6"/>
       <c r="X67" s="6"/>
       <c r="Y67" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="Z67" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA67" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA67" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F68" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="G68" s="1" t="s">
-        <v>628</v>
-      </c>
       <c r="K68" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M68" s="6">
         <f>EXP(2.0539)/1000</f>
@@ -5997,33 +6488,33 @@
       <c r="W68" s="6"/>
       <c r="X68" s="6"/>
       <c r="Y68" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="Z68" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA68" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA68" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F69" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="G69" s="1" t="s">
-        <v>630</v>
-      </c>
       <c r="K69" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M69" s="6">
         <f>EXP(2.8713)/1000</f>
@@ -6051,33 +6542,33 @@
       <c r="W69" s="6"/>
       <c r="X69" s="6"/>
       <c r="Y69" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="Z69" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA69" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA69" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F70" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>632</v>
-      </c>
       <c r="K70" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M70" s="6">
         <f>EXP(5.9913)/1000</f>
@@ -6105,33 +6596,33 @@
       <c r="W70" s="6"/>
       <c r="X70" s="6"/>
       <c r="Y70" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="Z70" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA70" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA70" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F71" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>634</v>
-      </c>
       <c r="K71" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M71" s="6">
         <f>EXP(3.5276)/1000</f>
@@ -6158,13 +6649,13 @@
       <c r="W71" s="6"/>
       <c r="X71" s="6"/>
       <c r="Y71" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="Z71" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA71" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA71" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.3">
@@ -6958,14 +7449,14 @@
         <v>342</v>
       </c>
       <c r="F85" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G85"/>
       <c r="K85" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M85">
         <v>5.8576897133356225E-3</v>
@@ -6990,13 +7481,13 @@
       <c r="U85" s="6"/>
       <c r="V85" s="6"/>
       <c r="W85" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="X85" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="X85" s="6" t="s">
+      <c r="Y85" t="s">
         <v>550</v>
-      </c>
-      <c r="Y85" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="86" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
@@ -7010,16 +7501,16 @@
         <v>485</v>
       </c>
       <c r="F86" t="s">
+        <v>530</v>
+      </c>
+      <c r="G86" t="s">
         <v>531</v>
       </c>
-      <c r="G86" t="s">
-        <v>532</v>
-      </c>
       <c r="K86" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M86">
         <v>2.4054939786195095E-3</v>
@@ -7044,13 +7535,13 @@
       <c r="U86" s="6"/>
       <c r="V86" s="6"/>
       <c r="W86" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="X86" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="X86" s="6" t="s">
+      <c r="Y86" t="s">
         <v>550</v>
-      </c>
-      <c r="Y86" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="87" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
@@ -7061,14 +7552,14 @@
         <v>337</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G87" s="15"/>
       <c r="J87" s="15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K87" s="1" t="s">
         <v>37</v>
@@ -7095,13 +7586,13 @@
       <c r="U87" s="6"/>
       <c r="V87" s="6"/>
       <c r="W87" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="X87" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y87" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="X87" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="Y87" s="1" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="88" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
@@ -7115,11 +7606,11 @@
         <v>342</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G88" s="15"/>
       <c r="J88" s="15" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>37</v>
@@ -7146,13 +7637,13 @@
       <c r="U88" s="6"/>
       <c r="V88" s="6"/>
       <c r="W88" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="X88" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y88" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="X88" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="Y88" s="1" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="89" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
@@ -7166,11 +7657,11 @@
         <v>342</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G89" s="15"/>
       <c r="J89" s="15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K89" s="1" t="s">
         <v>37</v>
@@ -7197,13 +7688,13 @@
       <c r="U89" s="6"/>
       <c r="V89" s="6"/>
       <c r="W89" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="X89" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y89" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="X89" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="Y89" s="1" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="90" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
@@ -7217,11 +7708,11 @@
         <v>342</v>
       </c>
       <c r="F90" s="15" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G90" s="15"/>
       <c r="J90" s="15" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="K90" s="1" t="s">
         <v>37</v>
@@ -7248,13 +7739,13 @@
       <c r="U90" s="6"/>
       <c r="V90" s="6"/>
       <c r="W90" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="X90" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y90" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="X90" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="Y90" s="1" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="91" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
@@ -7268,11 +7759,11 @@
         <v>342</v>
       </c>
       <c r="F91" s="15" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G91" s="15"/>
       <c r="J91" s="15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K91" s="1" t="s">
         <v>37</v>
@@ -7299,33 +7790,33 @@
       <c r="U91" s="6"/>
       <c r="V91" s="6"/>
       <c r="W91" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="X91" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y91" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="X91" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="Y91" s="1" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L92" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>673</v>
       </c>
       <c r="M92" s="6">
         <f>EXP(0.6977)/1000</f>
@@ -7353,33 +7844,33 @@
       <c r="W92" s="6"/>
       <c r="X92" s="6"/>
       <c r="Y92" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="Z92" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA92" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA92" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="K93" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="M93" s="6">
         <f>EXP(1.5013)/1000</f>
@@ -7407,33 +7898,33 @@
       <c r="W93" s="6"/>
       <c r="X93" s="6"/>
       <c r="Y93" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="Z93" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA93" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA93" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L94" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="K94" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L94" s="1" t="s">
-        <v>673</v>
       </c>
       <c r="M94" s="6">
         <f>EXP(1.05)/1000</f>
@@ -7457,33 +7948,33 @@
       <c r="W94" s="6"/>
       <c r="X94" s="6"/>
       <c r="Y94" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="Z94" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA94" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA94" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K95" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="M95" s="6">
         <f>EXP(1.2431)/1000</f>
@@ -7508,24 +7999,24 @@
       <c r="W95" s="6"/>
       <c r="X95" s="6"/>
       <c r="Y95" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Z95" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA95" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA95" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="96" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>184</v>
@@ -7534,7 +8025,7 @@
         <v>37</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="M96" s="6">
         <f>EXP(2.2266)/1000</f>
@@ -7561,24 +8052,24 @@
       <c r="W96" s="6"/>
       <c r="X96" s="6"/>
       <c r="Y96" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="Z96" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA96" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA96" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="97" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>184</v>
@@ -7587,7 +8078,7 @@
         <v>37</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="M97" s="6">
         <f>EXP(2.4511)/1000</f>
@@ -7615,33 +8106,33 @@
       <c r="W97" s="6"/>
       <c r="X97" s="6"/>
       <c r="Y97" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Z97" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA97" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA97" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="98" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L98" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="K98" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L98" s="1" t="s">
-        <v>673</v>
       </c>
       <c r="M98" s="6">
         <f>EXP(1.4919)/1000</f>
@@ -7667,33 +8158,33 @@
       <c r="W98" s="6"/>
       <c r="X98" s="6"/>
       <c r="Y98" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="Z98" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA98" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA98" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="99" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L99" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="K99" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L99" s="1" t="s">
-        <v>673</v>
       </c>
       <c r="M99" s="6">
         <f>EXP(1.3048)/1000</f>
@@ -7715,33 +8206,33 @@
       <c r="W99" s="6"/>
       <c r="X99" s="6"/>
       <c r="Y99" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="Z99" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA99" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA99" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="100" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F100" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="G100" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="G100" s="1" t="s">
-        <v>643</v>
-      </c>
       <c r="K100" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="M100" s="6">
         <f>EXP(2.5442)/1000</f>
@@ -7766,33 +8257,33 @@
       <c r="W100" s="6"/>
       <c r="X100" s="6"/>
       <c r="Y100" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Z100" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA100" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA100" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F101" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="G101" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="G101" s="1" t="s">
-        <v>643</v>
-      </c>
       <c r="K101" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="M101" s="6">
         <f>EXP(1.2286)/1000</f>
@@ -7816,33 +8307,33 @@
       <c r="W101" s="6"/>
       <c r="X101" s="6"/>
       <c r="Y101" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Z101" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA101" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA101" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F102" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="G102" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="G102" s="1" t="s">
-        <v>643</v>
-      </c>
       <c r="K102" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="M102" s="6">
         <f>EXP(1.0866)/1000</f>
@@ -7867,33 +8358,33 @@
       <c r="W102" s="6"/>
       <c r="X102" s="6"/>
       <c r="Y102" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Z102" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA102" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA102" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K103" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="M103" s="6">
         <f>EXP(2.7412)/1000</f>
@@ -7918,33 +8409,33 @@
       <c r="W103" s="6"/>
       <c r="X103" s="6"/>
       <c r="Y103" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Z103" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA103" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA103" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K104" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="M104" s="6">
         <f>EXP(1.4497)/1000</f>
@@ -7969,33 +8460,33 @@
       <c r="W104" s="6"/>
       <c r="X104" s="6"/>
       <c r="Y104" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Z104" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA104" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA104" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="105" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K105" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="M105" s="6">
         <f>EXP(2.0577)/1000</f>
@@ -8020,33 +8511,33 @@
       <c r="W105" s="6"/>
       <c r="X105" s="6"/>
       <c r="Y105" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Z105" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA105" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA105" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K106" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="M106" s="6">
         <f>EXP(2.4342)/1000</f>
@@ -8071,33 +8562,33 @@
       <c r="W106" s="6"/>
       <c r="X106" s="6"/>
       <c r="Y106" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Z106" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA106" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA106" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="107" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K107" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="M107" s="6">
         <f>EXP(2.0186)/1000</f>
@@ -8122,33 +8613,33 @@
       <c r="W107" s="6"/>
       <c r="X107" s="6"/>
       <c r="Y107" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Z107" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA107" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA107" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="108" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="K108" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="M108" s="6">
         <f>EXP(1.5386)/1000</f>
@@ -8173,33 +8664,33 @@
       <c r="W108" s="6"/>
       <c r="X108" s="6"/>
       <c r="Y108" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Z108" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA108" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA108" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="K109" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="M109" s="6">
         <f>EXP(2.2128)/1000</f>
@@ -8224,33 +8715,33 @@
       <c r="W109" s="6"/>
       <c r="X109" s="6"/>
       <c r="Y109" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Z109" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA109" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA109" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L110" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L110" s="1" t="s">
-        <v>673</v>
       </c>
       <c r="M110" s="6">
         <f>EXP(1.6602)/1000</f>
@@ -8278,33 +8769,33 @@
       <c r="W110" s="6"/>
       <c r="X110" s="6"/>
       <c r="Y110" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="Z110" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA110" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA110" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L111" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="K111" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L111" s="1" t="s">
-        <v>673</v>
       </c>
       <c r="M111" s="6">
         <f>EXP(1.3035)/1000</f>
@@ -8327,33 +8818,33 @@
       <c r="W111" s="6"/>
       <c r="X111" s="6"/>
       <c r="Y111" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="Z111" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="Z111" s="1" t="s">
+      <c r="AA111" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA111" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="K112" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="M112" s="6">
         <f>EXP(1.27)/1000</f>
@@ -8378,33 +8869,33 @@
       <c r="W112" s="6"/>
       <c r="X112" s="6"/>
       <c r="Y112" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Z112" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA112" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA112" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="113" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L113" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L113" s="1" t="s">
-        <v>673</v>
       </c>
       <c r="M113" s="6">
         <f>EXP(1.1356)/1000</f>
@@ -8430,33 +8921,33 @@
       <c r="W113" s="6"/>
       <c r="X113" s="6"/>
       <c r="Y113" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="Z113" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA113" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA113" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="114" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L114" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="K114" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L114" s="1" t="s">
-        <v>673</v>
       </c>
       <c r="M114" s="6">
         <f>EXP(1.4678)/1000</f>
@@ -8478,33 +8969,33 @@
       <c r="W114" s="6"/>
       <c r="X114" s="6"/>
       <c r="Y114" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="Z114" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA114" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA114" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="115" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="K115" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="M115" s="6">
         <f>EXP(2.0365)/1000</f>
@@ -8529,33 +9020,33 @@
       <c r="W115" s="6"/>
       <c r="X115" s="6"/>
       <c r="Y115" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Z115" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA115" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA115" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="116" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="K116" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="M116" s="6">
         <f>EXP(1.8977)/1000</f>
@@ -8580,33 +9071,33 @@
       <c r="W116" s="6"/>
       <c r="X116" s="6"/>
       <c r="Y116" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Z116" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA116" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA116" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="117" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="K117" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M117" s="6">
         <f>EXP(1.8551)/1000</f>
@@ -8631,33 +9122,33 @@
       <c r="W117" s="6"/>
       <c r="X117" s="6"/>
       <c r="Y117" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Z117" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA117" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA117" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="118" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L118" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="K118" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L118" s="1" t="s">
-        <v>673</v>
       </c>
       <c r="M118" s="6">
         <f>EXP(1.6296)/1000</f>
@@ -8683,33 +9174,33 @@
       <c r="W118" s="6"/>
       <c r="X118" s="6"/>
       <c r="Y118" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="Z118" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA118" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA118" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="119" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L119" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="K119" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L119" s="1" t="s">
-        <v>673</v>
       </c>
       <c r="M119" s="6">
         <f>EXP(1.6097)/1000</f>
@@ -8731,33 +9222,33 @@
       <c r="W119" s="6"/>
       <c r="X119" s="6"/>
       <c r="Y119" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="Z119" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA119" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA119" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="120" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L120" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="K120" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L120" s="1" t="s">
-        <v>673</v>
       </c>
       <c r="M120" s="6">
         <f>EXP(1.3035)/1000</f>
@@ -8780,33 +9271,33 @@
       <c r="W120" s="6"/>
       <c r="X120" s="6"/>
       <c r="Y120" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="Z120" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="Z120" s="1" t="s">
+      <c r="AA120" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA120" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="121" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F121" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="G121" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="G121" s="1" t="s">
-        <v>657</v>
-      </c>
       <c r="K121" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="M121" s="6">
         <f>EXP(0.6772)/1000</f>
@@ -8831,33 +9322,33 @@
       <c r="W121" s="6"/>
       <c r="X121" s="6"/>
       <c r="Y121" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Z121" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA121" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA121" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="122" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F122" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="G122" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="G122" s="1" t="s">
-        <v>659</v>
-      </c>
       <c r="K122" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="M122" s="6">
         <f>EXP(2.8519)/1000</f>
@@ -8882,33 +9373,33 @@
       <c r="W122" s="6"/>
       <c r="X122" s="6"/>
       <c r="Y122" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Z122" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA122" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA122" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="123" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F123" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="G123" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="G123" s="1" t="s">
-        <v>659</v>
-      </c>
       <c r="K123" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="M123" s="6">
         <f>EXP(2.3409)/1000</f>
@@ -8933,33 +9424,33 @@
       <c r="W123" s="6"/>
       <c r="X123" s="6"/>
       <c r="Y123" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Z123" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA123" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA123" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="124" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F124" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="G124" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="G124" s="1" t="s">
-        <v>659</v>
-      </c>
       <c r="K124" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="M124" s="6">
         <f>EXP(2.2614)/1000</f>
@@ -8983,33 +9474,33 @@
       <c r="W124" s="6"/>
       <c r="X124" s="6"/>
       <c r="Y124" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Z124" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA124" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA124" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="125" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F125" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="G125" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="G125" s="1" t="s">
-        <v>659</v>
-      </c>
       <c r="K125" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="M125" s="6">
         <f>EXP(2.3392)/1000</f>
@@ -9034,13 +9525,13 @@
       <c r="W125" s="6"/>
       <c r="X125" s="6"/>
       <c r="Y125" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Z125" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA125" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="AA125" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="126" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
@@ -9054,16 +9545,16 @@
         <v>486</v>
       </c>
       <c r="F126" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G126" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K126" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M126">
         <v>6.2199090159425728E-3</v>
@@ -9088,13 +9579,13 @@
       <c r="U126" s="6"/>
       <c r="V126" s="6"/>
       <c r="W126" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="X126" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="X126" s="6" t="s">
+      <c r="Y126" t="s">
         <v>550</v>
-      </c>
-      <c r="Y126" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="127" spans="1:27" x14ac:dyDescent="0.3">
@@ -12830,14 +13321,14 @@
         <v>371</v>
       </c>
       <c r="F194" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G194"/>
       <c r="K194" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L194" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M194">
         <v>1.6951229566232505E-3</v>
@@ -12862,13 +13353,13 @@
       <c r="U194" s="6"/>
       <c r="V194" s="6"/>
       <c r="W194" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="X194" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="X194" s="6" t="s">
+      <c r="Y194" t="s">
         <v>550</v>
-      </c>
-      <c r="Y194" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="195" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
@@ -12882,14 +13373,14 @@
         <v>483</v>
       </c>
       <c r="F195" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G195"/>
       <c r="K195" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L195" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M195">
         <v>3.2554820892043796E-4</v>
@@ -12914,13 +13405,13 @@
       <c r="U195" s="6"/>
       <c r="V195" s="6"/>
       <c r="W195" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="X195" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="X195" s="6" t="s">
+      <c r="Y195" t="s">
         <v>550</v>
-      </c>
-      <c r="Y195" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="196" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
@@ -12934,14 +13425,14 @@
         <v>365</v>
       </c>
       <c r="F196" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G196"/>
       <c r="K196" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L196" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M196">
         <v>1.0152858373369763E-2</v>
@@ -12966,13 +13457,13 @@
       <c r="U196" s="6"/>
       <c r="V196" s="6"/>
       <c r="W196" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="X196" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="X196" s="6" t="s">
+      <c r="Y196" t="s">
         <v>550</v>
-      </c>
-      <c r="Y196" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="197" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
@@ -12986,14 +13477,14 @@
         <v>367</v>
       </c>
       <c r="F197" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G197"/>
       <c r="K197" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L197" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M197">
         <v>6.6709033062552743E-3</v>
@@ -13018,13 +13509,13 @@
       <c r="U197" s="6"/>
       <c r="V197" s="6"/>
       <c r="W197" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="X197" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="X197" s="6" t="s">
+      <c r="Y197" t="s">
         <v>550</v>
-      </c>
-      <c r="Y197" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="198" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
@@ -13045,7 +13536,7 @@
         <v>37</v>
       </c>
       <c r="L198" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M198">
         <v>2.2595601851121864E-2</v>
@@ -13070,13 +13561,13 @@
       <c r="U198" s="6"/>
       <c r="V198" s="6"/>
       <c r="W198" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="X198" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="X198" s="6" t="s">
+      <c r="Y198" t="s">
         <v>550</v>
-      </c>
-      <c r="Y198" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="199" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
@@ -13097,7 +13588,7 @@
         <v>37</v>
       </c>
       <c r="L199" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M199">
         <v>4.3507157507873212E-4</v>
@@ -13122,13 +13613,13 @@
       <c r="U199" s="6"/>
       <c r="V199" s="6"/>
       <c r="W199" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="X199" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="X199" s="6" t="s">
+      <c r="Y199" t="s">
         <v>550</v>
-      </c>
-      <c r="Y199" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="200" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
@@ -13142,7 +13633,7 @@
         <v>367</v>
       </c>
       <c r="F200" s="15" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G200" s="15"/>
       <c r="H200" s="15"/>
@@ -13171,13 +13662,13 @@
       <c r="U200" s="6"/>
       <c r="V200" s="6"/>
       <c r="W200" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="X200" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y200" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="X200" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="Y200" s="1" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="201" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
@@ -13188,7 +13679,7 @@
         <v>364</v>
       </c>
       <c r="D201" s="15" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F201" s="15" t="s">
         <v>403</v>
@@ -13220,13 +13711,13 @@
       <c r="U201" s="6"/>
       <c r="V201" s="6"/>
       <c r="W201" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="X201" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y201" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="X201" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="Y201" s="1" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="202" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
@@ -13237,7 +13728,7 @@
         <v>364</v>
       </c>
       <c r="D202" s="15" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F202" s="15" t="s">
         <v>404</v>
@@ -13269,13 +13760,13 @@
       <c r="U202" s="6"/>
       <c r="V202" s="6"/>
       <c r="W202" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="X202" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y202" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="X202" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="Y202" s="1" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="203" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
@@ -13316,13 +13807,13 @@
       <c r="U203" s="6"/>
       <c r="V203" s="6"/>
       <c r="W203" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="X203" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y203" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="X203" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="Y203" s="1" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="204" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
@@ -13363,13 +13854,13 @@
       <c r="U204" s="6"/>
       <c r="V204" s="6"/>
       <c r="W204" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="X204" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y204" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="X204" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="Y204" s="1" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="205" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
@@ -13383,7 +13874,7 @@
         <v>371</v>
       </c>
       <c r="F205" s="15" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G205" s="15"/>
       <c r="H205" s="15"/>
@@ -13412,13 +13903,13 @@
       <c r="U205" s="6"/>
       <c r="V205" s="6"/>
       <c r="W205" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="X205" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y205" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="X205" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="Y205" s="1" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="206" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
@@ -13459,13 +13950,13 @@
       <c r="U206" s="6"/>
       <c r="V206" s="6"/>
       <c r="W206" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="X206" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y206" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="X206" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="Y206" s="1" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="207" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
@@ -13508,13 +13999,13 @@
       <c r="U207" s="6"/>
       <c r="V207" s="6"/>
       <c r="W207" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="X207" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y207" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="X207" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="Y207" s="1" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="208" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
@@ -13528,7 +14019,7 @@
       <c r="G208" s="15"/>
       <c r="H208" s="15"/>
       <c r="J208" s="15" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="K208" s="1" t="s">
         <v>37</v>
@@ -17500,16 +17991,16 @@
         <v>131</v>
       </c>
       <c r="F281" t="s">
+        <v>511</v>
+      </c>
+      <c r="G281" t="s">
         <v>512</v>
       </c>
-      <c r="G281" t="s">
-        <v>513</v>
-      </c>
       <c r="K281" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L281" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M281">
         <v>9.0047775824365593E-3</v>
@@ -17534,13 +18025,13 @@
       <c r="U281" s="6"/>
       <c r="V281" s="6"/>
       <c r="W281" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="X281" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="X281" s="6" t="s">
+      <c r="Y281" t="s">
         <v>550</v>
-      </c>
-      <c r="Y281" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="282" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
@@ -17554,14 +18045,14 @@
         <v>131</v>
       </c>
       <c r="F282" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G282"/>
       <c r="K282" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L282" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M282">
         <v>4.772763393680197E-5</v>
@@ -17586,13 +18077,13 @@
       <c r="U282" s="6"/>
       <c r="V282" s="6"/>
       <c r="W282" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="X282" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="X282" s="6" t="s">
+      <c r="Y282" t="s">
         <v>550</v>
-      </c>
-      <c r="Y282" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="283" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
@@ -17606,16 +18097,16 @@
         <v>131</v>
       </c>
       <c r="F283" t="s">
+        <v>514</v>
+      </c>
+      <c r="G283" t="s">
         <v>515</v>
       </c>
-      <c r="G283" t="s">
-        <v>516</v>
-      </c>
       <c r="K283" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L283" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M283">
         <v>7.4465830709243381E-3</v>
@@ -17640,13 +18131,13 @@
       <c r="U283" s="6"/>
       <c r="V283" s="6"/>
       <c r="W283" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="X283" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="X283" s="6" t="s">
+      <c r="Y283" t="s">
         <v>550</v>
-      </c>
-      <c r="Y283" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="284" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
@@ -17660,14 +18151,14 @@
         <v>479</v>
       </c>
       <c r="F284" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G284"/>
       <c r="K284" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L284" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M284">
         <v>1.7293667118571557E-3</v>
@@ -17692,13 +18183,13 @@
       <c r="U284" s="6"/>
       <c r="V284" s="6"/>
       <c r="W284" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="X284" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="X284" s="6" t="s">
+      <c r="Y284" t="s">
         <v>550</v>
-      </c>
-      <c r="Y284" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="285" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
@@ -17712,16 +18203,16 @@
         <v>480</v>
       </c>
       <c r="F285" t="s">
+        <v>517</v>
+      </c>
+      <c r="G285" t="s">
         <v>518</v>
       </c>
-      <c r="G285" t="s">
-        <v>519</v>
-      </c>
       <c r="K285" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L285" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M285">
         <v>7.9865212659555023E-3</v>
@@ -17746,13 +18237,13 @@
       <c r="U285" s="6"/>
       <c r="V285" s="6"/>
       <c r="W285" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="X285" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="X285" s="6" t="s">
+      <c r="Y285" t="s">
         <v>550</v>
-      </c>
-      <c r="Y285" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="286" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
@@ -17773,7 +18264,7 @@
         <v>37</v>
       </c>
       <c r="L286" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M286">
         <v>5.2475183991813846E-3</v>
@@ -17798,13 +18289,13 @@
       <c r="U286" s="6"/>
       <c r="V286" s="6"/>
       <c r="W286" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="X286" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="X286" s="6" t="s">
+      <c r="Y286" t="s">
         <v>550</v>
-      </c>
-      <c r="Y286" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="287" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
@@ -17847,13 +18338,13 @@
       <c r="U287" s="6"/>
       <c r="V287" s="6"/>
       <c r="W287" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="X287" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y287" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="X287" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="Y287" s="1" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="288" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
@@ -17870,7 +18361,7 @@
         <v>117</v>
       </c>
       <c r="G288" s="15" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H288" s="15"/>
       <c r="K288" s="1" t="s">
@@ -17898,13 +18389,13 @@
       <c r="U288" s="6"/>
       <c r="V288" s="6"/>
       <c r="W288" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="X288" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y288" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="X288" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="Y288" s="1" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="289" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
@@ -17947,13 +18438,13 @@
       <c r="U289" s="6"/>
       <c r="V289" s="6"/>
       <c r="W289" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="X289" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y289" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="X289" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="Y289" s="1" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="290" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
@@ -17996,13 +18487,13 @@
       <c r="U290" s="6"/>
       <c r="V290" s="6"/>
       <c r="W290" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="X290" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y290" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="X290" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="Y290" s="1" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="291" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
@@ -18043,34 +18534,34 @@
       <c r="U291" s="6"/>
       <c r="V291" s="6"/>
       <c r="W291" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="X291" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y291" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="X291" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="Y291" s="1" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="292" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B292" t="s">
         <v>544</v>
       </c>
-      <c r="B292" t="s">
-        <v>545</v>
-      </c>
       <c r="D292" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F292" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G292"/>
       <c r="K292" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L292" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M292">
         <v>7.5774004022845481E-2</v>
@@ -18095,13 +18586,13 @@
       <c r="U292" s="6"/>
       <c r="V292" s="6"/>
       <c r="W292" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="X292" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="X292" s="6" t="s">
+      <c r="Y292" t="s">
         <v>550</v>
-      </c>
-      <c r="Y292" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="293" spans="1:27" x14ac:dyDescent="0.3">
@@ -18350,19 +18841,19 @@
         <v>432</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F297" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="G297" s="1" t="s">
         <v>574</v>
-      </c>
-      <c r="G297" s="1" t="s">
-        <v>575</v>
       </c>
       <c r="K297" s="1" t="s">
         <v>37</v>
@@ -18387,7 +18878,7 @@
       <c r="W297" s="6"/>
       <c r="X297" s="6"/>
       <c r="Y297" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="298" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
@@ -18395,19 +18886,19 @@
         <v>432</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F298" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="G298" s="1" t="s">
         <v>574</v>
-      </c>
-      <c r="G298" s="1" t="s">
-        <v>575</v>
       </c>
       <c r="K298" s="1" t="s">
         <v>37</v>
@@ -18432,7 +18923,7 @@
       <c r="W298" s="6"/>
       <c r="X298" s="6"/>
       <c r="Y298" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="299" spans="1:27" x14ac:dyDescent="0.3">
@@ -18440,22 +18931,22 @@
         <v>432</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K299" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L299" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M299" s="6">
         <v>5.13207E-6</v>
@@ -18480,13 +18971,13 @@
       <c r="U299" s="6"/>
       <c r="V299" s="6"/>
       <c r="W299" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="X299" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="X299" s="6" t="s">
+      <c r="Y299" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="Y299" s="1" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="300" spans="1:27" x14ac:dyDescent="0.3">
@@ -20323,17 +20814,17 @@
         <v>166</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F330" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G330"/>
       <c r="K330" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L330" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M330">
         <v>2.3815589136168707E-3</v>
@@ -20358,13 +20849,13 @@
       <c r="U330" s="6"/>
       <c r="V330" s="6"/>
       <c r="W330" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="X330" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="X330" s="6" t="s">
+      <c r="Y330" t="s">
         <v>550</v>
-      </c>
-      <c r="Y330" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="331" spans="1:27" x14ac:dyDescent="0.3">
@@ -22758,16 +23249,16 @@
         <v>477</v>
       </c>
       <c r="F372" t="s">
+        <v>491</v>
+      </c>
+      <c r="G372" t="s">
         <v>492</v>
       </c>
-      <c r="G372" t="s">
-        <v>493</v>
-      </c>
       <c r="K372" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L372" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M372">
         <v>5.7416996856542021E-3</v>
@@ -22791,13 +23282,13 @@
       </c>
       <c r="V372" s="6"/>
       <c r="W372" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="X372" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="X372" s="6" t="s">
+      <c r="Y372" t="s">
         <v>550</v>
-      </c>
-      <c r="Y372" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="373" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
@@ -22811,16 +23302,16 @@
         <v>217</v>
       </c>
       <c r="F373" t="s">
+        <v>493</v>
+      </c>
+      <c r="G373" t="s">
         <v>494</v>
       </c>
-      <c r="G373" t="s">
-        <v>495</v>
-      </c>
       <c r="K373" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L373" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M373">
         <v>1.2155178329914935E-2</v>
@@ -22844,13 +23335,13 @@
       </c>
       <c r="V373" s="6"/>
       <c r="W373" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="X373" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="X373" s="6" t="s">
+      <c r="Y373" t="s">
         <v>550</v>
-      </c>
-      <c r="Y373" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="374" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
@@ -22864,16 +23355,16 @@
         <v>217</v>
       </c>
       <c r="F374" t="s">
+        <v>495</v>
+      </c>
+      <c r="G374" t="s">
         <v>496</v>
       </c>
-      <c r="G374" t="s">
-        <v>497</v>
-      </c>
       <c r="K374" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L374" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M374">
         <v>7.9865212659555023E-3</v>
@@ -22897,13 +23388,13 @@
       </c>
       <c r="V374" s="6"/>
       <c r="W374" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="X374" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="X374" s="6" t="s">
+      <c r="Y374" t="s">
         <v>550</v>
-      </c>
-      <c r="Y374" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="375" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
@@ -22917,16 +23408,16 @@
         <v>478</v>
       </c>
       <c r="F375" t="s">
+        <v>497</v>
+      </c>
+      <c r="G375" t="s">
         <v>498</v>
       </c>
-      <c r="G375" t="s">
-        <v>499</v>
-      </c>
       <c r="K375" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L375" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M375">
         <v>4.2535557448151254E-3</v>
@@ -22950,13 +23441,13 @@
       </c>
       <c r="V375" s="6"/>
       <c r="W375" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="X375" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="X375" s="6" t="s">
+      <c r="Y375" t="s">
         <v>550</v>
-      </c>
-      <c r="Y375" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="376" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
@@ -22970,16 +23461,16 @@
         <v>478</v>
       </c>
       <c r="F376" t="s">
+        <v>499</v>
+      </c>
+      <c r="G376" t="s">
         <v>500</v>
       </c>
-      <c r="G376" t="s">
-        <v>501</v>
-      </c>
       <c r="K376" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L376" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M376">
         <v>1.8547599468555032E-3</v>
@@ -23003,13 +23494,13 @@
       </c>
       <c r="V376" s="6"/>
       <c r="W376" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="X376" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="X376" s="6" t="s">
+      <c r="Y376" t="s">
         <v>550</v>
-      </c>
-      <c r="Y376" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="377" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
@@ -23023,16 +23514,16 @@
         <v>478</v>
       </c>
       <c r="F377" t="s">
+        <v>501</v>
+      </c>
+      <c r="G377" t="s">
         <v>502</v>
       </c>
-      <c r="G377" t="s">
-        <v>503</v>
-      </c>
       <c r="K377" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L377" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M377">
         <v>3.0500872171217483E-2</v>
@@ -23056,13 +23547,13 @@
       </c>
       <c r="V377" s="6"/>
       <c r="W377" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="X377" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="X377" s="6" t="s">
+      <c r="Y377" t="s">
         <v>550</v>
-      </c>
-      <c r="Y377" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="378" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
@@ -23076,16 +23567,16 @@
         <v>478</v>
       </c>
       <c r="F378" t="s">
+        <v>503</v>
+      </c>
+      <c r="G378" t="s">
         <v>504</v>
       </c>
-      <c r="G378" t="s">
-        <v>505</v>
-      </c>
       <c r="K378" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L378" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M378">
         <v>5.684568819219595E-3</v>
@@ -23109,13 +23600,13 @@
       </c>
       <c r="V378" s="6"/>
       <c r="W378" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="X378" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="X378" s="6" t="s">
+      <c r="Y378" t="s">
         <v>550</v>
-      </c>
-      <c r="Y378" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="379" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
@@ -23129,16 +23620,16 @@
         <v>478</v>
       </c>
       <c r="F379" t="s">
+        <v>505</v>
+      </c>
+      <c r="G379" t="s">
         <v>506</v>
       </c>
-      <c r="G379" t="s">
-        <v>507</v>
-      </c>
       <c r="K379" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L379" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M379">
         <v>5.0924307926991904E-3</v>
@@ -23163,13 +23654,13 @@
       <c r="U379" s="6"/>
       <c r="V379" s="6"/>
       <c r="W379" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="X379" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="X379" s="6" t="s">
+      <c r="Y379" t="s">
         <v>550</v>
-      </c>
-      <c r="Y379" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="380" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
@@ -23183,16 +23674,16 @@
         <v>478</v>
       </c>
       <c r="F380" t="s">
+        <v>507</v>
+      </c>
+      <c r="G380" t="s">
         <v>508</v>
       </c>
-      <c r="G380" t="s">
-        <v>509</v>
-      </c>
       <c r="K380" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L380" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M380">
         <v>6.0204992392373542E-2</v>
@@ -23217,13 +23708,13 @@
       <c r="U380" s="6"/>
       <c r="V380" s="6"/>
       <c r="W380" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="X380" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="X380" s="6" t="s">
+      <c r="Y380" t="s">
         <v>550</v>
-      </c>
-      <c r="Y380" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="381" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
@@ -23237,16 +23728,16 @@
         <v>478</v>
       </c>
       <c r="F381" t="s">
+        <v>509</v>
+      </c>
+      <c r="G381" t="s">
         <v>510</v>
       </c>
-      <c r="G381" t="s">
-        <v>511</v>
-      </c>
       <c r="K381" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L381" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M381">
         <v>9.1866861562446642E-3</v>
@@ -23271,13 +23762,13 @@
       <c r="U381" s="6"/>
       <c r="V381" s="6"/>
       <c r="W381" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="X381" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="X381" s="6" t="s">
+      <c r="Y381" t="s">
         <v>550</v>
-      </c>
-      <c r="Y381" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="382" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
@@ -23320,13 +23811,13 @@
       <c r="U382" s="6"/>
       <c r="V382" s="6"/>
       <c r="W382" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="X382" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y382" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="X382" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="Y382" s="1" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="383" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
@@ -23369,13 +23860,13 @@
       <c r="U383" s="6"/>
       <c r="V383" s="6"/>
       <c r="W383" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="X383" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y383" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="X383" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="Y383" s="1" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="384" spans="1:25" ht="14.5" x14ac:dyDescent="0.35">
@@ -23386,10 +23877,10 @@
         <v>203</v>
       </c>
       <c r="D384" s="15" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F384" s="15" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G384" s="15"/>
       <c r="H384" s="15"/>
@@ -23418,13 +23909,13 @@
       <c r="U384" s="6"/>
       <c r="V384" s="6"/>
       <c r="W384" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="X384" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y384" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="X384" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="Y384" s="1" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="385" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
@@ -23467,13 +23958,13 @@
       <c r="U385" s="6"/>
       <c r="V385" s="6"/>
       <c r="W385" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="X385" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y385" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="X385" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="Y385" s="1" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="386" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
@@ -23516,13 +24007,13 @@
       <c r="U386" s="6"/>
       <c r="V386" s="6"/>
       <c r="W386" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="X386" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y386" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="X386" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="Y386" s="1" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="387" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
@@ -23536,10 +24027,10 @@
         <v>217</v>
       </c>
       <c r="F387" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="G387" s="15" t="s">
         <v>554</v>
-      </c>
-      <c r="G387" s="15" t="s">
-        <v>555</v>
       </c>
       <c r="H387" s="15"/>
       <c r="K387" s="1" t="s">
@@ -23567,13 +24058,13 @@
       <c r="U387" s="6"/>
       <c r="V387" s="6"/>
       <c r="W387" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="X387" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y387" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="X387" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="Y387" s="1" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="388" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
@@ -23587,7 +24078,7 @@
         <v>206</v>
       </c>
       <c r="F388" s="15" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G388" s="15"/>
       <c r="H388" s="15"/>
@@ -23616,13 +24107,13 @@
       <c r="U388" s="6"/>
       <c r="V388" s="6"/>
       <c r="W388" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="X388" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y388" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="X388" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="Y388" s="1" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="389" spans="1:27" x14ac:dyDescent="0.3">
@@ -26356,16 +26847,16 @@
         <v>331</v>
       </c>
       <c r="F438" t="s">
+        <v>519</v>
+      </c>
+      <c r="G438" t="s">
         <v>520</v>
       </c>
-      <c r="G438" t="s">
-        <v>521</v>
-      </c>
       <c r="K438" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L438" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M438">
         <v>5.1303310331919108E-2</v>
@@ -26390,13 +26881,13 @@
       <c r="U438" s="6"/>
       <c r="V438" s="6"/>
       <c r="W438" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="X438" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="X438" s="6" t="s">
+      <c r="Y438" t="s">
         <v>550</v>
-      </c>
-      <c r="Y438" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="439" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
@@ -26410,14 +26901,14 @@
         <v>481</v>
       </c>
       <c r="F439" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G439"/>
       <c r="K439" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L439" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M439">
         <v>8.4803801599532685E-3</v>
@@ -26442,13 +26933,13 @@
       <c r="U439" s="6"/>
       <c r="V439" s="6"/>
       <c r="W439" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="X439" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="X439" s="6" t="s">
+      <c r="Y439" t="s">
         <v>550</v>
-      </c>
-      <c r="Y439" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="440" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
@@ -26462,14 +26953,14 @@
         <v>482</v>
       </c>
       <c r="F440" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G440"/>
       <c r="K440" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L440" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M440">
         <v>3.8487763976105429E-3</v>
@@ -26494,13 +26985,13 @@
       <c r="U440" s="6"/>
       <c r="V440" s="6"/>
       <c r="W440" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="X440" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="X440" s="6" t="s">
+      <c r="Y440" t="s">
         <v>550</v>
-      </c>
-      <c r="Y440" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="441" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
@@ -26514,14 +27005,14 @@
         <v>482</v>
       </c>
       <c r="F441" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G441"/>
       <c r="K441" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L441" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M441">
         <v>9.5616019305435045E-3</v>
@@ -26546,13 +27037,13 @@
       <c r="U441" s="6"/>
       <c r="V441" s="6"/>
       <c r="W441" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="X441" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="X441" s="6" t="s">
+      <c r="Y441" t="s">
         <v>550</v>
-      </c>
-      <c r="Y441" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="442" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
@@ -26566,14 +27057,14 @@
         <v>482</v>
       </c>
       <c r="F442" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G442"/>
       <c r="K442" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L442" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M442">
         <v>9.0952771016958155E-3</v>
@@ -26598,13 +27089,13 @@
       <c r="U442" s="6"/>
       <c r="V442" s="6"/>
       <c r="W442" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="X442" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="X442" s="6" t="s">
+      <c r="Y442" t="s">
         <v>550</v>
-      </c>
-      <c r="Y442" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="443" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
@@ -26647,13 +27138,13 @@
       <c r="U443" s="6"/>
       <c r="V443" s="6"/>
       <c r="W443" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="X443" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y443" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="X443" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="Y443" s="1" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="444" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
@@ -26696,13 +27187,13 @@
       <c r="U444" s="6"/>
       <c r="V444" s="6"/>
       <c r="W444" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="X444" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y444" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="X444" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="Y444" s="1" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="445" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
@@ -26745,13 +27236,13 @@
       <c r="U445" s="6"/>
       <c r="V445" s="6"/>
       <c r="W445" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="X445" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y445" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="X445" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="Y445" s="1" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="446" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
@@ -26759,20 +27250,20 @@
         <v>30</v>
       </c>
       <c r="B446" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D446" t="s">
         <v>546</v>
       </c>
-      <c r="D446" t="s">
-        <v>547</v>
-      </c>
       <c r="F446" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G446"/>
       <c r="K446" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L446" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M446">
         <v>1.8133395236801075E-2</v>
@@ -26797,13 +27288,13 @@
       <c r="U446" s="6"/>
       <c r="V446" s="6"/>
       <c r="W446" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="X446" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="X446" s="6" t="s">
+      <c r="Y446" t="s">
         <v>550</v>
-      </c>
-      <c r="Y446" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="447" spans="1:27" x14ac:dyDescent="0.3">
@@ -27084,10 +27575,13 @@
         <v>437</v>
       </c>
     </row>
-    <row r="453" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A453" s="1" t="s">
         <v>434</v>
       </c>
+      <c r="B453" s="20" t="s">
+        <v>697</v>
+      </c>
       <c r="K453" s="1" t="s">
         <v>37</v>
       </c>
@@ -27122,11 +27616,13 @@
         <v>437</v>
       </c>
     </row>
-    <row r="454" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:27" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A454" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="B454" s="11"/>
+      <c r="B454" s="20" t="s">
+        <v>697</v>
+      </c>
       <c r="C454" s="11"/>
       <c r="D454" s="11"/>
       <c r="E454" s="11"/>
@@ -27170,19 +27666,19 @@
         <v>432</v>
       </c>
       <c r="D455" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F455" t="s">
+        <v>538</v>
+      </c>
+      <c r="G455" t="s">
         <v>539</v>
       </c>
-      <c r="G455" t="s">
-        <v>540</v>
-      </c>
       <c r="K455" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L455" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M455">
         <v>8.2909966575172661E-2</v>
@@ -27207,13 +27703,13 @@
       <c r="U455" s="6"/>
       <c r="V455" s="6"/>
       <c r="W455" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="X455" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="X455" s="6" t="s">
+      <c r="Y455" t="s">
         <v>550</v>
-      </c>
-      <c r="Y455" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="456" spans="1:27" x14ac:dyDescent="0.3">
